--- a/similarities/split_global/harmonic_similarity_timestamps_62.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_62.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,103 +484,113 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'A', 'D']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb', 'F', 'Bb']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:43.430000', '0:00:49.319000')]</t>
+          <t>('0:01:21.420000', '0:01:30.040000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:51.839081', '0:01:14.118628')]</t>
+          <t>('0:00:10.560000', '0:00:17.340000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=43.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:17.580000')]</t>
+          <t>('0:00:58.670000', '0:01:04.130000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:23.020000')]</t>
+          <t>('0:00:36.200000', '0:00:42.920000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=36.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>schubert-winterreise_174</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -590,596 +600,618 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:06.160000', '0:00:23.860000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:02:06.620000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=6.16</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=126.62</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:28.356495')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:14.660000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:29.100000', '0:00:45.980000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=29.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'Ab']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'A:7/3', 'D'], ['A', 'E', 'A'], ['A:7/3', 'D', 'A']]</t>
+          <t>['F:min/C', 'C:7', 'F:min', 'G#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:17.840000', '0:00:26.980000'), ('0:00:00.740000', '0:00:21.500000'), ('0:01:06.040000', '0:01:08.540000')]</t>
+          <t>('0:00:45.670000', '0:00:51.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:14.541510', '0:00:23.411533'), ('0:00:00.421247', '0:00:05.746892'), ('0:00:18.954550', '0:00:24.340331')]</t>
+          <t>('0:00:47.400000', '0:00:56.940000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=17.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=45.67</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=18.95455']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=47.4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:00:01.014823', '0:00:12.241493')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:7', 'E:maj/B', 'E:min/B', 'B:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab:7', 'Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:00:03.080000', '0:00:13.480000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:47.890000', '0:00:52.970000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=3.08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=47.89</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:7/C#', 'D:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.760000', '0:00:19.280000')]</t>
+          <t>('0:00:32.980000', '0:00:35.260000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:56.943000', '0:01:03.992000')]</t>
+          <t>('0:01:05.260000', '0:01:11.040000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=13.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=56.943']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=65.26</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.900000', '0:00:07.720000')]</t>
+          <t>('0:00:47.960000', '0:01:01.660000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
+          <t>('0:00:21.860000', '0:00:28.920000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=1.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=47.96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=42.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=21.86</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb:min', 'Eb:7', 'Ab']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:32.486000', '0:00:37.053000')]</t>
+          <t>('0:00:18.160000', '0:00:39.800000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:03.650000', '0:00:06.290000')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=32.486']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=18.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=3.65']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:44', '0:01:01.060000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:00:52.680839', '0:00:55.420793')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:09.540000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=52.680839</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:min/F', 'F:7', 'A#:min'], ['C#/F', 'A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:48.480000', '0:01:00.840000'), ('0:00:41.960000', '0:00:51.360000')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:23.500000', '0:00:31.240000'), ('0:01:09', '0:01:14.900000')]</t>
+          <t>('0:00:17.839297', '0:00:30.215532')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=48.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=41.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=23.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=69.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['D:7', 'G:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['Eb:7', 'Ab', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000'), ('0:01:24.620000', '0:01:31.740000')]</t>
+          <t>('0:00:07.460000', '0:00:15.880000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.060000'), ('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:00:45.320000', '0:00:48.590000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=7.46</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=45.32</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C#', 'F#/5', 'C#', 'F#/5']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:05')]</t>
+          <t>('0:00:01.206300', '0:02:07.006105')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+          <t>('0:00:01.150000', '0:00:06.536000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
